--- a/res/Clinical Pharmacotherapeutics.xlsx
+++ b/res/Clinical Pharmacotherapeutics.xlsx
@@ -1473,7 +1473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1496,13 +1496,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1511,6 +1535,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD244"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3432,6 +3462,30 @@
         <v>206</v>
       </c>
       <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
